--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value359.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value359.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7087000900900746</v>
+        <v>0.9678354263305664</v>
       </c>
       <c r="B1">
-        <v>1.038820091026608</v>
+        <v>3.046417713165283</v>
       </c>
       <c r="C1">
-        <v>2.072972123994843</v>
+        <v>4.128415584564209</v>
       </c>
       <c r="D1">
-        <v>3.513761436931687</v>
+        <v>2.059024810791016</v>
       </c>
       <c r="E1">
-        <v>1.852120897768804</v>
+        <v>1.225955247879028</v>
       </c>
     </row>
   </sheetData>
